--- a/state_internet_acs.xlsx
+++ b/state_internet_acs.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Internet" sheetId="1" r:id="rId1"/>
+    <sheet name="State" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7794,91 +7794,6 @@
         <v>223868.04</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Puerto Rico</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Puerto Rico</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Puerto Rico</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Puerto Rico</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Puerto Rico</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
